--- a/biology/Zoologie/Doryaspis/Doryaspis.xlsx
+++ b/biology/Zoologie/Doryaspis/Doryaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Doryaspis[2] (« bouclier de fléchettes ») est un genre fossile de poissons primitifs sans mâchoire ayant vécu durant le Dévonien inférieur. Des fossiles ont été découverts au Spitzberg, en Norvège. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Doryaspis (« bouclier de fléchettes ») est un genre fossile de poissons primitifs sans mâchoire ayant vécu durant le Dévonien inférieur. Des fossiles ont été découverts au Spitzberg, en Norvège. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Doryaspis est décrit par White (d) en 1935[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Doryaspis est décrit par White (d) en 1935.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces animaux ont une armure corporelle en forme de bidon et de grandes plaques branchiales qui s’étendent et se courbent vers le bas selon une forme triangulaire très semblable à celle des pycnostéroïdes. Un élément des plaques orales médianes (qui correspondrait à la lèvre inférieure ou au menton des gnathostomes) s'étend dans un long appendice en forme de tige, appelé « pseudorostrum ». La queue est longue et mince avec de grandes rangées d'écailles épaisses.
 Pour l'espèce type, Doryaspis nathorsti, les bords latéraux des plaques branchiales et du pseudorostrum sont en dents de scie. Pour la deuxième espèce, Doryaspis arctica, ces bords ne sont pas dentelés. Par ailleurs elle est de plus petite taille.
@@ -574,9 +590,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 avril 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 avril 2021) :
 † Doryaspis arctica Pernègre, 2002
 † Doryaspis nathorsti (Lankester, 1884) - espèce type</t>
         </is>
